--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/3.BaoGiaBH/BG211028_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/3.BaoGiaBH/BG211028_GPSTayNinh.xlsx
@@ -676,6 +676,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -738,33 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1151,94 +1151,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="60" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="31"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="33"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
@@ -1369,50 +1369,50 @@
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="38">
         <v>2</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="39">
         <v>866192037806732</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="38">
         <v>1</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="42">
         <v>12000</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="42">
         <v>12000</v>
       </c>
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="28">
         <f>SUM(J13:J14)</f>
         <v>287000</v>
@@ -1434,12 +1434,12 @@
     </row>
     <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
@@ -1452,31 +1452,31 @@
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="35"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -1534,20 +1534,20 @@
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1625,17 +1625,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A24:E24"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1643,6 +1632,17 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
